--- a/check/Checkliste SEo.xlsx
+++ b/check/Checkliste SEo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\homepage\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB68FCB7-D370-4DE2-8185-2283F96CD134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0412712-C64C-45F6-A262-E7BA487939E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2820" windowWidth="21600" windowHeight="12735" xr2:uid="{569FF14A-8D05-4A5F-87AB-4ABA47F4CB26}"/>
+    <workbookView xWindow="30195" yWindow="0" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{569FF14A-8D05-4A5F-87AB-4ABA47F4CB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="offen" sheetId="3" r:id="rId2"/>
+    <sheet name="Links" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>Manifest</t>
   </si>
@@ -134,9 +136,6 @@
     <t>Kurze Urls</t>
   </si>
   <si>
-    <t>vermeiden URL extensions</t>
-  </si>
-  <si>
     <t>vermeiden URL parameter</t>
   </si>
   <si>
@@ -146,9 +145,6 @@
     <t>lowercase url</t>
   </si>
   <si>
-    <t>keineunderscores in url</t>
-  </si>
-  <si>
     <t>keine tief geschachtelten URLs</t>
   </si>
   <si>
@@ -173,9 +169,6 @@
     <t>defekte seiten</t>
   </si>
   <si>
-    <t>Sitemap location</t>
-  </si>
-  <si>
     <t>vermeiden von redirects</t>
   </si>
   <si>
@@ -213,6 +206,90 @@
   </si>
   <si>
     <t>Apple-Icon</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>Apartement Haunold</t>
+  </si>
+  <si>
+    <t>Apartement Haunold Details</t>
+  </si>
+  <si>
+    <t>Appartement Haunold - Preise</t>
+  </si>
+  <si>
+    <t>Appartement Haunold - Buchen</t>
+  </si>
+  <si>
+    <t>Apartement Thurntaler</t>
+  </si>
+  <si>
+    <t>Apartement Familie</t>
+  </si>
+  <si>
+    <t>Appartement Schlossblick</t>
+  </si>
+  <si>
+    <t>Appartement TopLoft</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Hauptnavigation</t>
+  </si>
+  <si>
+    <t>Kontakt, Impressum</t>
+  </si>
+  <si>
+    <t>Über uns, Geschichte des Brückenwirt</t>
+  </si>
+  <si>
+    <t>Questions&amp;answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>erfolgt automatisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata </t>
+  </si>
+  <si>
+    <t>priceRange</t>
+  </si>
+  <si>
+    <t>{"@context":"http://schema.org","@type":"WebSite","url":"https://www.sporthotel-sillian.at/","name":"Dolomiten Residenz****s Sporthotel Sillian","potentialAction":[{"@type":"SearchAction","target":"https://www.sporthotel-sillian.at/de/suche/?tx_indexedsearch_pi2%5Baction%5D=search&amp;tx_indexedsearch_pi2%5Bcontroller%5D=Search&amp;tx_indexedsearch_pi2%5Bsearch%5D%5Bsword%5D={search_term_string}&amp;cHash=b06204c6b4608fb86912070be9c21c87","query-input":"required name=search_term_string"}]}</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>icons in verschiedenen Größen</t>
+  </si>
+  <si>
+    <t>H1 und title sollten zusammenpassen</t>
+  </si>
+  <si>
+    <t>Bindestrich statt underscore</t>
+  </si>
+  <si>
+    <t>https://www.sporthotel-sillian.at/de/zimmer-preise/zimmer-suiten/</t>
+  </si>
+  <si>
+    <t>https://www.sporthotel-sillian.at/de/zimmer-preise/zimmer-suiten/junior-suite-almrose-45m2/</t>
+  </si>
+  <si>
+    <t>layout.js referrer</t>
+  </si>
+  <si>
+    <t>appartment</t>
+  </si>
+  <si>
+    <t>json-ld nicht im head</t>
   </si>
 </sst>
 </file>
@@ -571,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B42756-4C0E-4C40-A266-DD5840EFB818}">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,354 +692,562 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>49</v>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34384891-408B-45D8-B176-5ED7114DFC55}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A02BA06-5CCA-446B-9451-88F783385E99}">
+  <dimension ref="B3:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/check/Checkliste SEo.xlsx
+++ b/check/Checkliste SEo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\homepage\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0412712-C64C-45F6-A262-E7BA487939E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46D899-139A-4C80-A2A5-B13EF7CFACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="0" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{569FF14A-8D05-4A5F-87AB-4ABA47F4CB26}"/>
+    <workbookView xWindow="7530" yWindow="2070" windowWidth="28140" windowHeight="9585" activeTab="1" xr2:uid="{569FF14A-8D05-4A5F-87AB-4ABA47F4CB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Manifest</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>json-ld nicht im head</t>
+  </si>
+  <si>
+    <t>webkit</t>
+  </si>
+  <si>
+    <t>html, body, form, fieldset, p, div, h1, h2, h3, h4, h5, h6 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -webkit-text-size-adjust: none;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -webkit-font-smoothing: antialiased;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -moz-osx-font-smoothing: grayscale;</t>
+  </si>
+  <si>
+    <t>Muster:porsche</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34384891-408B-45D8-B176-5ED7114DFC55}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1127,39 @@
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
